--- a/ExcelWorkbook1/bin/Debug/ExcelWorkbook1.xlsx
+++ b/ExcelWorkbook1/bin/Debug/ExcelWorkbook1.xlsx
@@ -395,7 +395,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9C69E9D-08D1-4EC3-B717-FDEB4D563E9F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73EDB64F-DCC2-4DB5-8724-A114F4244857}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/ExcelWorkbook1/bin/Debug/ExcelWorkbook1.xlsx
+++ b/ExcelWorkbook1/bin/Debug/ExcelWorkbook1.xlsx
@@ -395,7 +395,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73EDB64F-DCC2-4DB5-8724-A114F4244857}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{753628FB-4C34-4070-A844-F813615EE61A}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/ExcelWorkbook1/bin/Debug/ExcelWorkbook1.xlsx
+++ b/ExcelWorkbook1/bin/Debug/ExcelWorkbook1.xlsx
@@ -395,7 +395,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{753628FB-4C34-4070-A844-F813615EE61A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12BC588E-787E-457C-8E4B-B5180C555A17}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/ExcelWorkbook1/bin/Debug/ExcelWorkbook1.xlsx
+++ b/ExcelWorkbook1/bin/Debug/ExcelWorkbook1.xlsx
@@ -395,7 +395,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12BC588E-787E-457C-8E4B-B5180C555A17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED0AA613-6341-4E7A-A63C-5BBC6E04BB0C}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/ExcelWorkbook1/bin/Debug/ExcelWorkbook1.xlsx
+++ b/ExcelWorkbook1/bin/Debug/ExcelWorkbook1.xlsx
@@ -395,7 +395,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED0AA613-6341-4E7A-A63C-5BBC6E04BB0C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8872509-2BF4-4FD8-B0C8-AB22980E3B70}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>